--- a/Jupyter/data_combined.xlsx
+++ b/Jupyter/data_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003424D5-D1FE-478E-8B8D-A94270D0BC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500CD8E6-2BEC-4EF0-BC21-0E33E512F863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19118" yWindow="-7808" windowWidth="16365" windowHeight="14483" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
   <si>
     <t>Breeder</t>
   </si>
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +141,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -154,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -165,6 +177,14 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,6 +1072,136 @@
         <v>1.2722601968411571</v>
       </c>
     </row>
+    <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11">
+        <f>6232567000000000000*1E-24</f>
+        <v>6.2325669999999991E-6</v>
+      </c>
+      <c r="F19" s="11">
+        <f>6232567000000000000*1E-24</f>
+        <v>6.2325669999999991E-6</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2724.22</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3834.44</v>
+      </c>
+      <c r="I19" s="12">
+        <f>E19*G19</f>
+        <v>1.6978883672739996E-2</v>
+      </c>
+      <c r="J19" s="12">
+        <f>F19*H19</f>
+        <v>2.3898404207479997E-2</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" ref="K19:K22" si="1">(J19-I19)/(I19)*100</f>
+        <v>40.753683623202249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="J20" s="10">
+        <v>2.3854150630574E-2</v>
+      </c>
+      <c r="K20" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14">
+        <v>50</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="15">
+        <f>6232567000000000000*1E-24</f>
+        <v>6.2325669999999991E-6</v>
+      </c>
+      <c r="F21" s="15">
+        <f>6232567000000000000*1E-24</f>
+        <v>6.2325669999999991E-6</v>
+      </c>
+      <c r="G21" s="15">
+        <v>84061.5</v>
+      </c>
+      <c r="H21" s="15">
+        <v>101466</v>
+      </c>
+      <c r="I21" s="16">
+        <f>E21*G21</f>
+        <v>0.5239189308704999</v>
+      </c>
+      <c r="J21" s="16">
+        <f>F21*H21</f>
+        <v>0.63239364322199987</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" si="1"/>
+        <v>20.704484216912615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="14">
+        <v>50</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="J22" s="14">
+        <v>0.63221071094595604</v>
+      </c>
+      <c r="K22" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Jupyter/data_combined.xlsx
+++ b/Jupyter/data_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500CD8E6-2BEC-4EF0-BC21-0E33E512F863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B288F2B9-F472-443E-84BD-6D56C5E73574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1992" yWindow="1224" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>Breeder</t>
   </si>
@@ -95,7 +95,10 @@
     <t>Pb-17Li</t>
   </si>
   <si>
-    <t>Li4SiO4-Be pebble bed</t>
+    <t>Li4SiO4-Be-He</t>
+  </si>
+  <si>
+    <t>Li4SiO4-Be</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +941,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -978,7 +981,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1006,7 +1009,7 @@
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5">
         <v>50</v>
@@ -1046,7 +1049,7 @@
     </row>
     <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5">
         <v>50</v>
@@ -1094,14 +1097,14 @@
         <v>6.2325669999999991E-6</v>
       </c>
       <c r="G19" s="11">
-        <v>2724.22</v>
+        <v>2743.65</v>
       </c>
       <c r="H19" s="11">
         <v>3834.44</v>
       </c>
       <c r="I19" s="12">
         <f>E19*G19</f>
-        <v>1.6978883672739996E-2</v>
+        <v>1.7099982449549998E-2</v>
       </c>
       <c r="J19" s="12">
         <f>F19*H19</f>
@@ -1109,7 +1112,7 @@
       </c>
       <c r="K19" s="13">
         <f t="shared" ref="K19:K22" si="1">(J19-I19)/(I19)*100</f>
-        <v>40.753683623202249</v>
+        <v>39.756893189729006</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1132,10 +1135,7 @@
       <c r="J20" s="10">
         <v>2.3854150630574E-2</v>
       </c>
-      <c r="K20" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
@@ -1159,22 +1159,22 @@
         <v>6.2325669999999991E-6</v>
       </c>
       <c r="G21" s="15">
-        <v>84061.5</v>
+        <v>93396</v>
       </c>
       <c r="H21" s="15">
-        <v>101466</v>
+        <v>101228</v>
       </c>
       <c r="I21" s="16">
         <f>E21*G21</f>
-        <v>0.5239189308704999</v>
+        <v>0.58209682753199987</v>
       </c>
       <c r="J21" s="16">
         <f>F21*H21</f>
-        <v>0.63239364322199987</v>
+        <v>0.63091029227599993</v>
       </c>
       <c r="K21" s="17">
         <f t="shared" si="1"/>
-        <v>20.704484216912615</v>
+        <v>8.3857981069853214</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1197,10 +1197,7 @@
       <c r="J22" s="14">
         <v>0.63221071094595604</v>
       </c>
-      <c r="K22" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K22" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
